--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lathril, Blade of the Elves</t>
+          <t>Inspired Sphinx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Lathril, Blade of the Elves</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Ranar the Ever-Watchful</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Wolverine Riders</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,26 +444,117 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Inspired Sphinx</t>
+          <t>Bounty of Skemfar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lathril, Blade of the Elves</t>
+          <t>Cosmic Intervention</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ranar the Ever-Watchful</t>
+          <t>Crown of Skemfar</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>Elderfang Venom</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ethereal Valkyrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hero of Bretagard</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Inspired Sphinx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lathril, Blade of the Elves</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pact of the Serpent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ranar the Ever-Watchful</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ruthless Winnower</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sage of the Beyond</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Serpent's Soul-Jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Spectral Deluge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Stoic Farmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tales of the Ancestors</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Wolverine Riders</t>
         </is>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Commander (KHC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,119 +444,833 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bounty of Skemfar</t>
+          <t>Abomination of Llanowar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cosmic Intervention</t>
+          <t>Ambition's Cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crown of Skemfar</t>
+          <t>Angel of Finality</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elderfang Venom</t>
+          <t>Angel of Serenity</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ethereal Valkyrie</t>
+          <t>Arcane Artisan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hero of Bretagard</t>
+          <t>Arcane Signet</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Inspired Sphinx</t>
+          <t>Azorius Chancery</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lathril, Blade of the Elves</t>
+          <t>Azorius Guildgate</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pact of the Serpent</t>
+          <t>Azorius Signet</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ranar the Ever-Watchful</t>
+          <t>Banishing Light</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ruthless Winnower</t>
+          <t>Beast Whisperer</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sage of the Beyond</t>
+          <t>Bounty of Skemfar</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serpent's Soul-Jar</t>
+          <t>Brago, King Eternal</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spectral Deluge</t>
+          <t>Burnished Hart</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stoic Farmer</t>
+          <t>Casualties of War</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tales of the Ancestors</t>
+          <t>Cleansing Nova</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Cloudblazer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cloudgoat Ranger</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Commander's Sphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Command Tower</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cosmic Intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Crown of Skemfar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cryptic Caves</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cultivator of Blades</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Curse of the Swine</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Day of the Dragons</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dwynen, Gilt-Leaf Daen</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Eerie Interlude</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Elderfang Venom</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Elvish Archdruid</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Elvish Mystic</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Elvish Promenade</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Elvish Rejuvenator</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Empyrean Eagle</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>End-Raze Forerunners</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ethereal Valkyrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Evangel of Heliod</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Eyeblight Cullers</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Eyeblight Massacre</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Farhaven Elf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Flickerwisp</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Foul Orchard</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Geist-Honored Monk</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ghostly Flicker</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ghostly Prison</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Goldnight Commander</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Golgari Findbroker</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Golgari Guildgate</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Golgari Rot Farm</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Harvest Season</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hero of Bretagard</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Imperious Perfect</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Inspired Sphinx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jagged-Scar Archers</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jungle Hollow</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kor Cartographer</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Lathril, Blade of the Elves</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Llanowar Tribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Lys Alana Huntmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Lys Alana Scarblade</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Marble Diamond</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Marshal's Anthem</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Marwyn, the Nurturer</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Masked Admirers</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Meandering River</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Meteor Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Miara, Thorn of the Glade</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Migratory Route</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Mind Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Mistmeadow Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Mist Raven</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Moldervine Reclamation</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Momentary Blink</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Mulldrifter</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Myriad Landscape</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nullmage Shepherd</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Numa, Joraga Chieftain</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Opal Palace</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pact of the Serpent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Path of Ancestry</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Poison-Tip Archer</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pride of the Perfect</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Prowess of the Fair</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Putrefy</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ranar the Ever-Watchful</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Reclamation Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Restoration Angel</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Return to Dust</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Rhys the Exiled</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ruthless Winnower</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sage of the Beyond</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sea Gate Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sejiri Refuge</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Serpent's Soul-Jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Shaman of the Pack</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sky Diamond</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sol Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Soulherder</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Spectral Deluge</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Springbloom Druid</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Stoic Farmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Storm Herd</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sun Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Swiftfoot Boots</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sylvan Messenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Synthetic Destiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tales of the Ancestors</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Thunderclap Wyvern</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Timberwatch Elf</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tranquil Cove</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Twinblade Assassins</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Voice of Many</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Voice of the Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Wall of Omens</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Whirler Rogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Windfall</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Wirewood Channeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>Wolverine Riders</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Wood Elves</t>
         </is>
       </c>
     </row>
